--- a/Modelagem_e_Avaliacao_de_Desempenho/Planejamento_de_capacidade_Sophia_Carrazza_Mad.xlsx
+++ b/Modelagem_e_Avaliacao_de_Desempenho/Planejamento_de_capacidade_Sophia_Carrazza_Mad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Documents\Faculdade\4semestre-CC-PUCMinas-SophiaCarrazza-\Modelagem_e_Avaliacao_de_Desempenho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCE4D0F-18D5-480D-904E-19831C59B758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA3D2D-6E81-4915-B42A-AFECAC717329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="1" tint="0.24994659260841701"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,7 +366,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -375,7 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -399,13 +399,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,18 +411,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutro" xfId="1" builtinId="28"/>
+    <cellStyle name="cinza" xfId="1" xr:uid="{387F879A-4A35-4130-8D4A-87186A5691F2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +648,7 @@
   <dimension ref="A1:DS42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+      <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,335 +660,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="21" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="16" t="s">
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="22" t="s">
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="15" t="s">
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CW1" s="16"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="16"/>
-      <c r="DA1" s="16"/>
-      <c r="DB1" s="16"/>
-      <c r="DC1" s="16"/>
-      <c r="DD1" s="16"/>
-      <c r="DE1" s="16"/>
-      <c r="DF1" s="16"/>
-      <c r="DG1" s="16"/>
-      <c r="DH1" s="16"/>
-      <c r="DI1" s="16"/>
-      <c r="DJ1" s="16"/>
-      <c r="DK1" s="16"/>
-      <c r="DL1" s="16"/>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="16"/>
-      <c r="DO1" s="16"/>
-      <c r="DP1" s="16"/>
-      <c r="DQ1" s="16"/>
-      <c r="DR1" s="16"/>
-      <c r="DS1" s="16"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="12" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="12" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="18" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="18" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="18" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="18" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="18" t="s">
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="18" t="s">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="12" t="s">
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="12" t="s">
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="12" t="s">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="12" t="s">
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="12" t="s">
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="14" t="s">
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="23" t="s">
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="18" t="s">
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="18" t="s">
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13"/>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="18" t="s">
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="18" t="s">
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="18" t="s">
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13"/>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="12" t="s">
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="13"/>
-      <c r="CY2" s="13"/>
-      <c r="CZ2" s="12" t="s">
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="DA2" s="13"/>
-      <c r="DB2" s="13"/>
-      <c r="DC2" s="13"/>
-      <c r="DD2" s="12" t="s">
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" s="13"/>
-      <c r="DF2" s="13"/>
-      <c r="DG2" s="13"/>
-      <c r="DH2" s="12" t="s">
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="DI2" s="13"/>
-      <c r="DJ2" s="13"/>
-      <c r="DK2" s="13"/>
-      <c r="DL2" s="12" t="s">
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="DM2" s="13"/>
-      <c r="DN2" s="13"/>
-      <c r="DO2" s="13"/>
-      <c r="DP2" s="14" t="s">
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="DQ2" s="13"/>
-      <c r="DR2" s="13"/>
-      <c r="DS2" s="13"/>
-    </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+    </row>
+    <row r="3" spans="1:123" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1109,63 +1110,63 @@
       <c r="DR3" s="1"/>
       <c r="DS3" s="1"/>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+    <row r="4" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>45292</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:123" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>45323</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:123" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>45352</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:123" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>45383</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1288,157 +1289,157 @@
       <c r="DS8" s="1"/>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>45293</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>45324</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>45353</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>45384</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1561,94 +1562,94 @@
       <c r="DS13" s="1"/>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>45294</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>45325</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>45354</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>52</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
     </row>
     <row r="17" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1771,70 +1772,70 @@
       <c r="DS17" s="1"/>
     </row>
     <row r="18" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>45295</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3">
         <v>52</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
     </row>
     <row r="19" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1957,104 +1958,104 @@
       <c r="DS19" s="1"/>
     </row>
     <row r="20" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>45296</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>45327</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
     </row>
     <row r="22" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>45356</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2177,53 +2178,53 @@
       <c r="DS23" s="1"/>
     </row>
     <row r="24" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>45297</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3">
         <v>8</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
     </row>
     <row r="25" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>45328</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
     </row>
     <row r="26" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2346,39 +2347,39 @@
       <c r="DS26" s="1"/>
     </row>
     <row r="27" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>45298</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="23"/>
     </row>
     <row r="28" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>45329</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="5"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="23"/>
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
     </row>
     <row r="29" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2501,62 +2502,62 @@
       <c r="DS29" s="1"/>
     </row>
     <row r="30" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>45299</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="BM30" s="5"/>
-      <c r="BN30" s="5"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
       <c r="BO30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>45330</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
       </c>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
+      <c r="BN31" s="23"/>
+      <c r="BO31" s="23"/>
+      <c r="BP31" s="23"/>
+      <c r="BQ31" s="23"/>
+      <c r="BR31" s="23"/>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>45359</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="3">
         <v>8</v>
       </c>
-      <c r="BS32" s="5"/>
-      <c r="BT32" s="5"/>
-      <c r="BU32" s="5"/>
-      <c r="BV32" s="5"/>
-      <c r="BW32" s="5"/>
-      <c r="BX32" s="5"/>
-      <c r="BY32" s="5"/>
-      <c r="BZ32" s="5"/>
+      <c r="BS32" s="23"/>
+      <c r="BT32" s="23"/>
+      <c r="BU32" s="23"/>
+      <c r="BV32" s="23"/>
+      <c r="BW32" s="23"/>
+      <c r="BX32" s="23"/>
+      <c r="BY32" s="23"/>
+      <c r="BZ32" s="23"/>
     </row>
     <row r="33" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2682,38 +2683,38 @@
       <c r="A34" s="2">
         <v>45300</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
       </c>
-      <c r="CA34" s="5"/>
-      <c r="CB34" s="5"/>
-      <c r="CC34" s="5"/>
-      <c r="CD34" s="5"/>
+      <c r="CA34" s="23"/>
+      <c r="CB34" s="23"/>
+      <c r="CC34" s="23"/>
+      <c r="CD34" s="23"/>
     </row>
     <row r="35" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45331</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="CA35" s="5"/>
-      <c r="CB35" s="5"/>
-      <c r="CC35" s="5"/>
-      <c r="CD35" s="5"/>
+      <c r="CA35" s="23"/>
+      <c r="CB35" s="23"/>
+      <c r="CC35" s="23"/>
+      <c r="CD35" s="23"/>
     </row>
     <row r="36" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2836,10 +2837,10 @@
       <c r="DS36" s="1"/>
     </row>
     <row r="37" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="3">
@@ -2848,52 +2849,52 @@
       <c r="G37" t="s">
         <v>57</v>
       </c>
-      <c r="CE37" s="5"/>
-      <c r="CF37" s="5"/>
-      <c r="CG37" s="5"/>
-      <c r="CH37" s="5"/>
-      <c r="CI37" s="5"/>
-      <c r="CJ37" s="5"/>
-      <c r="CK37" s="5"/>
-      <c r="CL37" s="5"/>
-      <c r="CM37" s="5"/>
-      <c r="CN37" s="5"/>
-      <c r="CO37" s="5"/>
-      <c r="CP37" s="5"/>
-      <c r="CQ37" s="5"/>
-      <c r="CR37" s="5"/>
-      <c r="CS37" s="5"/>
-      <c r="CT37" s="5"/>
-      <c r="CU37" s="5"/>
-      <c r="CV37" s="5"/>
+      <c r="CE37" s="23"/>
+      <c r="CF37" s="23"/>
+      <c r="CG37" s="23"/>
+      <c r="CH37" s="23"/>
+      <c r="CI37" s="23"/>
+      <c r="CJ37" s="23"/>
+      <c r="CK37" s="23"/>
+      <c r="CL37" s="23"/>
+      <c r="CM37" s="23"/>
+      <c r="CN37" s="23"/>
+      <c r="CO37" s="23"/>
+      <c r="CP37" s="23"/>
+      <c r="CQ37" s="23"/>
+      <c r="CR37" s="23"/>
+      <c r="CS37" s="23"/>
+      <c r="CT37" s="23"/>
+      <c r="CU37" s="23"/>
+      <c r="CV37" s="23"/>
     </row>
     <row r="38" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="3">
         <v>10</v>
       </c>
-      <c r="CW38" s="5"/>
-      <c r="CX38" s="5"/>
-      <c r="CY38" s="5"/>
-      <c r="CZ38" s="5"/>
-      <c r="DA38" s="5"/>
-      <c r="DB38" s="5"/>
-      <c r="DC38" s="5"/>
-      <c r="DD38" s="5"/>
-      <c r="DE38" s="5"/>
-      <c r="DF38" s="5"/>
+      <c r="CW38" s="23"/>
+      <c r="CX38" s="23"/>
+      <c r="CY38" s="23"/>
+      <c r="CZ38" s="23"/>
+      <c r="DA38" s="23"/>
+      <c r="DB38" s="23"/>
+      <c r="DC38" s="23"/>
+      <c r="DD38" s="23"/>
+      <c r="DE38" s="23"/>
+      <c r="DF38" s="23"/>
     </row>
     <row r="39" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3016,53 +3017,53 @@
       <c r="DS39" s="1"/>
     </row>
     <row r="40" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="DG40" s="5"/>
-      <c r="DH40" s="5"/>
-      <c r="DI40" s="5"/>
-      <c r="DJ40" s="5"/>
-      <c r="DK40" s="5"/>
-      <c r="DL40" s="5"/>
-      <c r="DM40" s="5"/>
-      <c r="DN40" s="5"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="DG40" s="23"/>
+      <c r="DH40" s="23"/>
+      <c r="DI40" s="23"/>
+      <c r="DJ40" s="23"/>
+      <c r="DK40" s="23"/>
+      <c r="DL40" s="23"/>
+      <c r="DM40" s="23"/>
+      <c r="DN40" s="23"/>
     </row>
     <row r="41" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="DK41" s="5"/>
-      <c r="DL41" s="5"/>
-      <c r="DM41" s="5"/>
-      <c r="DN41" s="5"/>
-      <c r="DO41" s="5"/>
-      <c r="DP41" s="5"/>
-      <c r="DQ41" s="5"/>
-      <c r="DR41" s="5"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="DK41" s="23"/>
+      <c r="DL41" s="23"/>
+      <c r="DM41" s="23"/>
+      <c r="DN41" s="23"/>
+      <c r="DO41" s="23"/>
+      <c r="DP41" s="23"/>
+      <c r="DQ41" s="23"/>
+      <c r="DR41" s="23"/>
     </row>
     <row r="42" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3187,11 +3188,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CE2"/>
+    <mergeCell ref="DL2:DO2"/>
+    <mergeCell ref="DP2:DS2"/>
+    <mergeCell ref="CV2:CY2"/>
+    <mergeCell ref="CZ2:DC2"/>
+    <mergeCell ref="DD2:DG2"/>
+    <mergeCell ref="DH2:DK2"/>
+    <mergeCell ref="CV1:DS1"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BC2"/>
     <mergeCell ref="CF2:CI2"/>
     <mergeCell ref="CJ2:CM2"/>
     <mergeCell ref="CN2:CQ2"/>
@@ -3208,33 +3231,11 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="CV1:DS1"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BK2"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="DL2:DO2"/>
-    <mergeCell ref="DP2:DS2"/>
-    <mergeCell ref="CV2:CY2"/>
-    <mergeCell ref="CZ2:DC2"/>
-    <mergeCell ref="DD2:DG2"/>
-    <mergeCell ref="DH2:DK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CE2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="1">
